--- a/Prim 1 Unique Phones.xlsx
+++ b/Prim 1 Unique Phones.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="130">
   <si>
     <t>Phone</t>
   </si>
@@ -163,9 +163,6 @@
     <t>01286386150</t>
   </si>
   <si>
-    <t>01096976461</t>
-  </si>
-  <si>
     <t>01004964679</t>
   </si>
   <si>
@@ -397,100 +394,13 @@
     <t>01009319664</t>
   </si>
   <si>
-    <t>01225732231</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>01022211787</t>
-  </si>
-  <si>
-    <t>01220074419</t>
-  </si>
-  <si>
-    <t>01000416194</t>
-  </si>
-  <si>
-    <t>01024631638</t>
-  </si>
-  <si>
-    <t>01008031839</t>
-  </si>
-  <si>
-    <t>01028415380</t>
-  </si>
-  <si>
-    <t>01004870178</t>
-  </si>
-  <si>
-    <t>01024431228</t>
-  </si>
-  <si>
-    <t>01203803853</t>
-  </si>
-  <si>
-    <t>01145899978</t>
-  </si>
-  <si>
-    <t>01020475000</t>
-  </si>
-  <si>
-    <t>01210080460</t>
-  </si>
-  <si>
-    <t>01226964870</t>
-  </si>
-  <si>
-    <t>01285825106</t>
-  </si>
-  <si>
-    <t>01091990088</t>
-  </si>
-  <si>
-    <t>01220733371</t>
-  </si>
-  <si>
-    <t>01030258981</t>
-  </si>
-  <si>
-    <t>01069817453</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>01205065479</t>
-  </si>
-  <si>
-    <t>01226621714</t>
-  </si>
-  <si>
-    <t>01003939343</t>
-  </si>
-  <si>
-    <t>01020543755</t>
-  </si>
-  <si>
-    <t>01228264893</t>
-  </si>
-  <si>
-    <t>01550351320</t>
-  </si>
-  <si>
-    <t>01202166841</t>
-  </si>
-  <si>
-    <t>01000896806</t>
-  </si>
-  <si>
-    <t>01066001243</t>
-  </si>
-  <si>
-    <t>01207808088</t>
-  </si>
-  <si>
-    <t>01019401225</t>
+    <t>01020007817</t>
+  </si>
+  <si>
+    <t>01011525384</t>
+  </si>
+  <si>
+    <t>01064800205</t>
   </si>
 </sst>
 </file>
@@ -867,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B158"/>
+  <dimension ref="A1:B128"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="15" customWidth="1"/>
@@ -1897,246 +1807,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>130</v>
-      </c>
-      <c r="B129" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>131</v>
-      </c>
-      <c r="B130" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>132</v>
-      </c>
-      <c r="B131" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>133</v>
-      </c>
-      <c r="B132" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>134</v>
-      </c>
-      <c r="B133" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>135</v>
-      </c>
-      <c r="B134" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>136</v>
-      </c>
-      <c r="B135" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>137</v>
-      </c>
-      <c r="B136" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>138</v>
-      </c>
-      <c r="B137" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>139</v>
-      </c>
-      <c r="B138" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>140</v>
-      </c>
-      <c r="B139" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>141</v>
-      </c>
-      <c r="B140" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>142</v>
-      </c>
-      <c r="B141" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>143</v>
-      </c>
-      <c r="B142" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>144</v>
-      </c>
-      <c r="B143" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>145</v>
-      </c>
-      <c r="B144" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>146</v>
-      </c>
-      <c r="B145" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>147</v>
-      </c>
-      <c r="B146" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>148</v>
-      </c>
-      <c r="B147" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>149</v>
-      </c>
-      <c r="B148" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>150</v>
-      </c>
-      <c r="B149" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>151</v>
-      </c>
-      <c r="B150" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>152</v>
-      </c>
-      <c r="B151" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>153</v>
-      </c>
-      <c r="B152" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>154</v>
-      </c>
-      <c r="B153" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>155</v>
-      </c>
-      <c r="B154" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>156</v>
-      </c>
-      <c r="B155" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>157</v>
-      </c>
-      <c r="B156" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>158</v>
-      </c>
-      <c r="B157" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>159</v>
-      </c>
-      <c r="B158" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
